--- a/TLE eliminators/TLE eliminators study.xlsx
+++ b/TLE eliminators/TLE eliminators study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\resources\Competitive Programming\solutions\TLE eliminators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2000D5EA-4E67-463E-AE78-2EEBA7A31D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1103C0A-6242-4327-B55A-406023881E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily practice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -445,16 +445,6 @@
     <t>If the question asks for a YES or NO as answer, then most likely you do not need to solve what is given but a find a constraint which breaks the condition for solving and return answer</t>
   </si>
   <si>
-    <t>I was trying very hard to find out a condition where if number of negative is greater than or equal to number of positives, then how many negatives to be converted to get the answer. But I was always getting stuck with one test case or another.
-Finally after hours of finding out cases, I got the solution myself (Will be checking editorial for sure)
-Cases:
-np --&gt; number of 1s
-nn --&gt; number of -1s 
-1. If np == n: return 0 (since all are positive)
-2. if np&gt;nn: return 0 if even number of -1s else return 1 (since 1s &gt; -1s, sum will always be greater than 0, we need to take care of the product and if there are even number of -1s, product will also be =ve, so returning 0, else make 1 -1 as 1, so one operation)
-3. This is the difficult part where nn&gt;=np (see code in the column aside)</t>
-  </si>
-  <si>
     <t>def solution(n,arr):
     np = 0
     nn = 0
@@ -494,6 +484,88 @@
   </si>
   <si>
     <t>19th - 20th May, 2025</t>
+  </si>
+  <si>
+    <t>I was trying very hard to find out a condition where if number of negative is greater than or equal to number of positives, then how many negatives to be converted to get the answer. But I was always getting stuck with one test case or another.
+Finally after hours of finding out cases, I got the solution myself (Will be checking editorial for sure)
+Cases:
+np --&gt; number of 1s
+nn --&gt; number of -1s 
+1. If np == n: return 0 (since all are positive)
+2. if np&gt;nn: return 0 if even number of -1s else return 1 (since 1s &gt; -1s, sum will always be greater than 0, we need to take care of the product and if there are even number of -1s, product will also be =ve, so returning 0, else make 1 -1 as 1, so one operation)
+3. This is the difficult part where nn&gt;=np (see code in the column aside)
+Here is the change of perspective from the editorial.
+Now, since this is not a YES or NO question, they went ahead and performed the operations in a loop. That makes the code much easier. Yes, my code is O(1) to find the solution but to get the number of 1s and -1s I am anyways doing a O(n) so that doesnt help !
+So, based on the solution given in the editorial, this indeed is a easy problem</t>
+  </si>
+  <si>
+    <t>Sometimes, when the question asks for a direct answer and the solution looks too mathematical, that is, a lot of equations and if-else complexities, try solving the question by doing the action itself since the action itself is very trivial. Complexity optimization takes the back bench then</t>
+  </si>
+  <si>
+    <t>20th May, 2025</t>
+  </si>
+  <si>
+    <t>Twin permutations</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1831/A</t>
+  </si>
+  <si>
+    <t>I am thinking of how to find that permutation.
+Thought of sorting the array, failed for  1,2,4,5,3
+Though of sorting the part which was unsorted. Failed for 1,3,8,5,6,10
+Thinking of an idea, where I find the sum of max+min and then develop the array by subtracting the sum with every element. This works !</t>
+  </si>
+  <si>
+    <t>23rd May, 2025</t>
+  </si>
+  <si>
+    <t>Blank space</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1829/B</t>
+  </si>
+  <si>
+    <t>Just keep track of the last one</t>
+  </si>
+  <si>
+    <t>Coins</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1814/A</t>
+  </si>
+  <si>
+    <t>Easy only because I got the observation correct
+So, I had to find a way where the condition will always be false and after playing around with a few cases, it seemed that the condition will always be false if k is even but n is false
+I have later gone through the proof of why this is always true. See notes</t>
+  </si>
+  <si>
+    <t>Walking master</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1806/A</t>
+  </si>
+  <si>
+    <t>I found out 2 things:
+1. If the point (c,d) is below the diagonal of (a,b) its not reachable. And we can find by the line equations
+2. If the line is on the diagonal then we are good by simply subtracting (x1-x2)
+But I am stuck that if its above the diagonal, how to determine ?
+I found out that you can simply find out the exact point below it and to go right above its 2*(direct distance)
+But this is not working
+I then thought hard and worked out some maths
+We need to move from (x1,y1) to (x2,y2)
+If y2 &lt; y1, we can never go with the left and diag moves
+Also, if (x2,y2) is below the diagonal. i.e, y2&lt;y1+x2-x1 then not possible.
+Now, comes the case where its possible.
+To do that we need to find a point (p,q) so that we can do k number of left moves and z number of diag moves.
+Now, if you observe carefully, for (p,q) q will always be achieved by moving left, thus q = y1
+Now p will be in the same diagonal as (x2,y2) 
+Thus, p = y1 - y2 + x2
+So, we get (p,q)
+Thus, the total distance will be abs(x1 - p) + abs(y2 - q)</t>
+  </si>
+  <si>
+    <t>Maths is essential for CF problems</t>
   </si>
 </sst>
 </file>
@@ -928,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,7 +1364,7 @@
     </row>
     <row r="20" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>81</v>
@@ -1304,10 +1376,78 @@
         <v>75</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>86</v>
+    </row>
+    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1366,13 +1506,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2047B5-B884-49A6-A712-BA9886E6F78A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
@@ -1384,6 +1527,16 @@
         <v>84</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TLE eliminators/TLE eliminators study.xlsx
+++ b/TLE eliminators/TLE eliminators study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\resources\Competitive Programming\solutions\TLE eliminators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1103C0A-6242-4327-B55A-406023881E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2785DC6-B2BB-413D-83C4-81847B4F7BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily practice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -566,6 +566,40 @@
   </si>
   <si>
     <t>Maths is essential for CF problems</t>
+  </si>
+  <si>
+    <t>23rd May, 2025
+(WAS ON VACATION FROM 24th - 27th)
+- 28th May, 2025</t>
+  </si>
+  <si>
+    <t>28th May, 2025</t>
+  </si>
+  <si>
+    <t>We need the zero</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1805/A</t>
+  </si>
+  <si>
+    <t>Established that the XOR of all elements is the answer, but facing trouble when there is a 0 in either the array or the result. Not being able to determine what case should the answer exist and what it should be
+its actually a pretty easy problem, we just need to read the question properly.
+So, if there are even number of elements, the resultant effectof x is zero since we are xoring x with every element, i.e, there are even number of x's being used and the net effect of that is 0
+So, if n is even and the xor of the elemetns of the given array is 0, then any x is the answer else there is no answer
+Now, if n is odd, then the xor of all the elements is the result !</t>
+  </si>
+  <si>
+    <t>Easy if you are observant.
+Else, Difficult</t>
+  </si>
+  <si>
+    <t>Prepend and append</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1791/C</t>
+  </si>
+  <si>
+    <t>just do the task in a loop and you will eventually reach the answer</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1469,7 @@
     </row>
     <row r="24" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>100</v>
@@ -1448,6 +1482,40 @@
       </c>
       <c r="E24" s="8" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2047B5-B884-49A6-A712-BA9886E6F78A}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/TLE eliminators/TLE eliminators study.xlsx
+++ b/TLE eliminators/TLE eliminators study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\resources\Competitive Programming\solutions\TLE eliminators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2785DC6-B2BB-413D-83C4-81847B4F7BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B853B-F69A-4D61-8507-5E4A0A07D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Learnings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
   <si>
     <t>Date</t>
   </si>
@@ -600,6 +601,127 @@
   </si>
   <si>
     <t>just do the task in a loop and you will eventually reach the answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCD if done on array, is always decreasing.
+i.e, arr = {a1, a2, a3}
+gcd(a1, a2) -&gt; g1
+gcd(a1,a2,a3) -&gt; gcd(g1,a3) -&gt; g2
+Then g2 &lt;= g1
+Since, gcd(a,b) &lt;= min(a,b)
+</t>
+  </si>
+  <si>
+    <t>29th May, 2025 (HAD AN INTERVIEW)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1789/A</t>
+  </si>
+  <si>
+    <t>Difficult (since in-depth math of gcd)</t>
+  </si>
+  <si>
+    <t>Serval and Mocha's array</t>
+  </si>
+  <si>
+    <t>I initially considered sorting the array and then calculating gcd of every prefix . But that fails for :
+5
+1261 227821 143 4171 1941
+So, I had to look at the logic and the interesting proerpty I learnt is:
+GCD if done on array, is always decreasing.
+i.e, arr = {a1, a2, a3}
+gcd(a1, a2) -&gt; g1
+gcd(a1,a2,a3) -&gt; gcd(g1,a3) -&gt; g2
+Then g2 &lt;= g1
+Since, gcd(a,b) &lt;= min(a,b)
+Thus, the idea is if we find any two elements with gcd &lt;= 2, then we get the solution.
+Since the first prefix is ought to be &lt;= 2 (since the array is of length 2)
+GCD is always decreasing, so if we find such two elements, the next prefixes will have gcd &lt;=2 so it will always be a GOOD array</t>
+  </si>
+  <si>
+    <t>30th May, 2025</t>
+  </si>
+  <si>
+    <t>One and two</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1788/A</t>
+  </si>
+  <si>
+    <t>All lied in the number of 2s in the array.
+If all are 1, then k=1 is always correct, since the product till k will be equal to the product of elements from k+1 to n and all will be 1
+If there are 2 present, we count the number of 2s.
+If even number of 2s present, then the num of 2s/2 position 2 is the value of k
+Else, we cannot get k hence return -1</t>
+  </si>
+  <si>
+    <t>Make it beautiful</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1783/A</t>
+  </si>
+  <si>
+    <t>I thought of a solution where I essentially make the array descending and am assuming that will always make the array beautiful because we cannot get any element that will be equal to the sum of elements before it since all elements before it will be larger than it !
+But this did not work 
+I found the case myself with some analysis.
+Since i was checkign for the first 2 elemetns and if they are same just exchanging the 2nd and 3rd elemetns. This process was incrorrect since it would fail for :
+3 3 3 2
+So, I am now finding the next non similar element
+And that works !</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1777/A</t>
+  </si>
+  <si>
+    <t>Everybody likes good arrays</t>
+  </si>
+  <si>
+    <t>I devised a solution where a group of numbers with the same parity would contribute to the minimum number of operations required.
+That is, if there is a group of 3 numbers and all are even, then the num ops here would be 2
+So, we keep on adding this and we get the solution.
+But this doesnt work !
+This actually is working but I am facing trouble when the array ends with a group of numbers of the same parity, then I dont go to the else, so the updation is not happening and if I do the updation at last, it creates issues
+At last, this condition helped:
+    if count &gt; 1:
+        num+=count-1</t>
+  </si>
+  <si>
+    <t>Extremely round</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1766/A</t>
+  </si>
+  <si>
+    <t>This is a very simple problem, where we need to see the pattern.
+We observe that the numbers with only one non zero digit appears as :
+1,2,3 .. 9 -&gt; 9 numbers
+10,20,30,….90 -&gt; 9 numbers
+100,200,300,….900 -&gt; 9 numbers
+So, its observant that after every 10s, there are 9 numbers which are extremely round.
+Thus, we keep on dividing our number by 10 until its less than 10, and the number of times we have divided tells us the number of 10s required to build the number and every 10s has 9 extremely round numbers.
+Thus the result is number of times divided to make n &lt;10 * 9 + remaining value of n</t>
+  </si>
+  <si>
+    <t>1st June, 2025</t>
+  </si>
+  <si>
+    <t>Two permutations</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1761/A</t>
+  </si>
+  <si>
+    <t>Coming up with the edge cases was a bit difficult. But else the problem is easy.
+&lt;--- a ----&gt; x &lt;----- b -----&gt;
+Upon observation, we can see that if n==a and n==b, i.e, the length of the longest suffix and prefix is equal to n, then the same permutation works for both p and q and thus the ansewr is Yes
+But, if a+b&gt;n, i.e, a and b together combine to form n, then there is an overlap between a and b and that would imply that would mean :
+&lt;-------a----------&gt;
+                  &lt;------------------------b---&gt;
+&lt;-----------------n----------------------&gt;
+So, as you can see longest suffix and prefix would essentially be n and hence it would not be possible to form this permutation.
+And if there is only one element between a and b or no elements between a annd b, then also its not possible.
+Else it is.
+This is essentially a very observant visualization problme</t>
   </si>
 </sst>
 </file>
@@ -720,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -754,6 +876,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,6 +1641,108 @@
       </c>
       <c r="E26" s="8" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1574,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2047B5-B884-49A6-A712-BA9886E6F78A}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,6 +1832,11 @@
         <v>103</v>
       </c>
     </row>
+    <row r="5" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TLE eliminators/TLE eliminators study.xlsx
+++ b/TLE eliminators/TLE eliminators study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\resources\Competitive Programming\solutions\TLE eliminators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B853B-F69A-4D61-8507-5E4A0A07D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FDD6CE-B584-4D5D-970B-E8B67591B2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Learnings" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
   <si>
     <t>Date</t>
   </si>
@@ -722,6 +721,36 @@
 And if there is only one element between a and b or no elements between a annd b, then also its not possible.
 Else it is.
 This is essentially a very observant visualization problme</t>
+  </si>
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <t>6th June, 2025</t>
+  </si>
+  <si>
+    <t>Forked</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1904/A</t>
+  </si>
+  <si>
+    <t>A very interesting problem.
+Go through the intuitions I had in the notebook
+So, initially I was thinking, how would I determine all the places the horse could go.
+Then it came to me that it would be exactly 8 places from a position that the horse could go :
+(x+a,y+b)
+(x+a,y-b)
+(x-a,y+b)
+(x-a,y-b)
+(x+b,y+a)
+(x+b,y-a)
+(x-b,y+a)
+(x-b,y-a)
+Thus, I found out that (xk,yk) and (xq,yq) has to be in this subset only
+Now if say, xk,yq = x-a,y-b
+Then x = xk+a ; y=yq+b
+So, it dawned on me that if I calculate 16 positions, 8 with (xk,yk) and the other 8 with (xq,yq) Then I would get all possible positions of the horse from where it can attack the king and queen respectively, and the common positions are the points from where the horse can attack both the king and queen !</t>
   </si>
 </sst>
 </file>
@@ -785,7 +814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -838,11 +867,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -878,6 +920,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,40 +1204,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="96.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="35.88671875" style="11" customWidth="1"/>
+    <col min="1" max="2" width="17.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="96.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="35.88671875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1211,538 +1258,652 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4">
+        <v>800</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="4">
+        <v>800</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="4">
+        <v>800</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="4">
+        <v>800</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="4">
+        <v>800</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="4">
+        <v>800</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="4">
+        <v>800</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="4">
+        <v>800</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="4">
+        <v>800</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="4">
+        <v>800</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="4">
+        <v>800</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="4">
+        <v>800</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="4">
+        <v>800</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="4">
+        <v>800</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="4">
+        <v>800</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="4">
+        <v>800</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="4">
+        <v>800</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="4">
+        <v>800</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="4">
+        <v>800</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="4">
+        <v>800</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="4">
+        <v>800</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="4">
+        <v>800</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="4">
+        <v>800</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="4">
+        <v>800</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="4">
+        <v>800</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="F26" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="4">
+        <v>800</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="4">
+        <v>800</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="4">
+        <v>800</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="4">
+        <v>800</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="4">
+        <v>800</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="4">
+        <v>800</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="4">
+        <v>900</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/TLE eliminators/TLE eliminators study.xlsx
+++ b/TLE eliminators/TLE eliminators study.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\resources\Competitive Programming\solutions\TLE eliminators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FDD6CE-B584-4D5D-970B-E8B67591B2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8F2E75-3076-45B4-84E5-6D61F4A7E508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
@@ -751,6 +751,52 @@
 Now if say, xk,yq = x-a,y-b
 Then x = xk+a ; y=yq+b
 So, it dawned on me that if I calculate 16 positions, 8 with (xk,yk) and the other 8 with (xq,yq) Then I would get all possible positions of the horse from where it can attack the king and queen respectively, and the common positions are the points from where the horse can attack both the king and queen !</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1883/B</t>
+  </si>
+  <si>
+    <t>In this the idea of the property of a palindrome made it challenging
+I was thinking if the palindrome is of even length then there should be 0 characters with odd freq else there can be only 1 character with odd frequency.
+But the idea just had to be shifted, given a palindromel it canhave a max of 1 odd character ! Thats it</t>
+  </si>
+  <si>
+    <t>Vasilije and cacak</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1878/C</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>This one is also very interesting.
+I was thinking about which numbers to pick up, how should I pick it up, is there any mathematical relation between the total sum etc.
+But the idea was with k numbers what is the minimum sum and maximum sum that I can make.   if my required sum is within that range, then I will be able to form it !</t>
+  </si>
+  <si>
+    <t>Jellyfish and Undertale</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1875/A</t>
+  </si>
+  <si>
+    <t>I am not being able to think:
+1. How to proceed ?
+2. Which numbers to select ?
+3. In which order should we pick the numbers up ?
+I tried with asc and desc order but the second case is not passing with my logic.
+Should I try every combination ? Wont that be too complicated ?
+The idea is to find the best sequence of numbers which when chosen maximizes the time
+From the example explanation, I got an idea, choose the tool at the 1st second only.
+So based on this idea, I wrote a brute force and greedy solution which worked fine but got a TLE !!
+One small tweak and the TLE was resolved.
+Initialy complexity was O(n+b) and brought it down to O(n)
+Since b~10^9
+And each test case can have 10^8 ops max, thus, my previous solution got TLE</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1904,6 +1950,57 @@
       </c>
       <c r="F33" s="8" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>900</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>900</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>900</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
